--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1408.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1408.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.955430913325322</v>
+        <v>1.191405653953552</v>
       </c>
       <c r="B1">
-        <v>2.523235787859905</v>
+        <v>1.723453044891357</v>
       </c>
       <c r="C1">
-        <v>2.655287755558513</v>
+        <v>6.817564010620117</v>
       </c>
       <c r="D1">
-        <v>3.248548966476474</v>
+        <v>2.273456573486328</v>
       </c>
       <c r="E1">
-        <v>1.140790200372769</v>
+        <v>1.190638542175293</v>
       </c>
     </row>
   </sheetData>
